--- a/Projects/CCUS/FSOP/Data/Coke_FSOP_v1.xlsx
+++ b/Projects/CCUS/FSOP/Data/Coke_FSOP_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Assignment" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">FSOP</t>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
+    <t xml:space="preserve">Coolers - Coke Branded - FSOP, Fountains - Coke Branded - FSOP</t>
   </si>
   <si>
     <t xml:space="preserve">Pass/Fail</t>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">number_required_Still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_required_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">CCNA</t>
@@ -287,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,16 +351,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -377,31 +388,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="G1 E1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.062962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.9777777777778"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6185185185185"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.062962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="46.1555555555556"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.7592592592593"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,7 +451,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -518,7 +529,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -557,7 +568,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -596,7 +607,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -648,8 +659,8 @@
       <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -762,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -787,7 +798,6 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -804,29 +814,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="G1 H8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.2407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.5740740740741"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,8 +868,14 @@
       <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -869,24 +886,27 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="15" t="n">
+      <c r="I2" s="17" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -898,17 +918,20 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="16"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -920,17 +943,20 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -942,17 +968,21 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -962,40 +992,45 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="17" t="n">
+      <c r="D7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1015,27 +1050,29 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -1045,13 +1082,13 @@
         <v>33</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1099,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="n">
@@ -1083,13 +1120,16 @@
         <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCUS/FSOP/Data/Coke_FSOP_v1.xlsx
+++ b/Projects/CCUS/FSOP/Data/Coke_FSOP_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Assignment" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -171,7 +171,22 @@
     <t xml:space="preserve">% SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers - Coke Branded - FSOP, Cold Vault - FSOP</t>
+    <t xml:space="preserve">numerator param1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator param1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator value1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers - Coke Branded - FSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att</t>
   </si>
 </sst>
 </file>
@@ -290,7 +305,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,6 +384,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -390,26 +409,26 @@
   </sheetPr>
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="40.1777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.3296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="43.2148148148148"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9888888888889"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.0037037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.9555555555556"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.0037037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,25 +796,25 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.0222222222222"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.2592592592593"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.0851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.6111111111111"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4037037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.2481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1016,24 +1035,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.2481481481481"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1047,16 +1068,25 @@
         <v>29</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1069,15 +1099,18 @@
       <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1090,16 +1123,26 @@
       <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="I3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/CCUS/FSOP/Data/Coke_FSOP_v1.xlsx
+++ b/Projects/CCUS/FSOP/Data/Coke_FSOP_v1.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimothySweatt\Projects\Coke FSOP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1415498F-1AEB-4ED7-96B6-629555D36E08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KPI Assignment" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Availability" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="SOS" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="KPI Assignment" sheetId="1" r:id="rId1"/>
+    <sheet name="Availability" sheetId="2" r:id="rId2"/>
+    <sheet name="SOS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'KPI Assignment'!$A$1:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'KPI Assignment'!$A$1:$J$13</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,178 +30,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">KPI Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Type (Additional_Attribute_1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Calc. Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10:  Is there availability of at least 1 KO Energy Brand?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers - Coke Branded - FSOP,Fountains - Coke Branded - FSOP,Cold Vault - FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass/Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q11:  Is there availability of 2 or more strategic growth Brands?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3:    Is Cooler pure?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers - Coke Branded - FSOP,Cold Vault - FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5:    Does the fountain equipment include Still Beverages?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fountains - Coke Branded - FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6:    Are PET Sparkling AND Still packages available?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q7:    Is KO Share of Still Visual Inventory=&gt;50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8:    Is there availability of at least 2 or more waters?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9:    Is there availability of at least 1 KO Tea Brand?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_brands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_Sparkling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_Still</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNA, Coca-Cola Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLASTIC BOTTLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD, Still</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLD PEAK TEA, HONEST TEA, FUZE, Peace tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONSTER ENERGY, MONSTER COFFEE+ENERGY,Monster Reign,NOS ENERGY,FULL THROTTLE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
+  <si>
+    <t>KPI Name</t>
+  </si>
+  <si>
+    <t>Functional logic</t>
+  </si>
+  <si>
+    <t>KPI Family</t>
+  </si>
+  <si>
+    <t>Store Type (Additional_Attribute_1)</t>
+  </si>
+  <si>
+    <t>scene Type</t>
+  </si>
+  <si>
+    <t>KPI Calc. Type</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 10</t>
+  </si>
+  <si>
+    <t>Q10:  Is there availability of at least 1 KO Energy Brand?</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>FSOP</t>
+  </si>
+  <si>
+    <t>Coolers - Coke Branded - FSOP,Fountains - Coke Branded - FSOP,Cold Vault - FSOP</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 11</t>
+  </si>
+  <si>
+    <t>Q11:  Is there availability of 2 or more strategic growth Brands?</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 3</t>
+  </si>
+  <si>
+    <t>Q3:    Is Cooler pure?</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Coolers - Coke Branded - FSOP,Cold Vault - FSOP</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 5</t>
+  </si>
+  <si>
+    <t>Q5:    Does the fountain equipment include Still Beverages?</t>
+  </si>
+  <si>
+    <t>Fountains - Coke Branded - FSOP</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 6</t>
+  </si>
+  <si>
+    <t>Q6:    Are PET Sparkling AND Still packages available?</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 7</t>
+  </si>
+  <si>
+    <t>Q7:    Is KO Share of Still Visual Inventory=&gt;50%</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 8</t>
+  </si>
+  <si>
+    <t>Q8:    Is there availability of at least 2 or more waters?</t>
+  </si>
+  <si>
+    <t>FSOP Equipment 9</t>
+  </si>
+  <si>
+    <t>Q9:    Is there availability of at least 1 KO Tea Brand?</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>att4</t>
+  </si>
+  <si>
+    <t>number_required_brands</t>
+  </si>
+  <si>
+    <t>number_required_Sparkling</t>
+  </si>
+  <si>
+    <t>number_required_Still</t>
+  </si>
+  <si>
+    <t>number_required_SKU</t>
+  </si>
+  <si>
+    <t>PLASTIC BOTTLE</t>
+  </si>
+  <si>
+    <t>SSD, Still</t>
+  </si>
+  <si>
+    <t>GOLD PEAK TEA, HONEST TEA, FUZE, Peace tea</t>
+  </si>
+  <si>
+    <t>MONSTER ENERGY, MONSTER COFFEE+ENERGY,Monster Reign,NOS ENERGY,FULL THROTTLE</t>
   </si>
   <si>
     <t xml:space="preserve">DUNKIN DONUTS, MC CAFE, FUZE, HONEST TEA, GOLD PEAK TEA, DASANI SPARKLING, SMARTWATER, SMARTWATER SPARKLING, </t>
   </si>
   <si>
-    <t xml:space="preserve">SMARTWATER, DASANI SPARKLING, DASANI WATER, SMARTWATER SPARKLING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5:    Does the fountain equipment include KO Still Beverages?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator param1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator param1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator value1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers - Coke Branded - FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att</t>
+    <t>SMARTWATER, DASANI SPARKLING, DASANI WATER, SMARTWATER SPARKLING</t>
+  </si>
+  <si>
+    <t>Q5:    Does the fountain equipment include KO Still Beverages?</t>
+  </si>
+  <si>
+    <t>Still</t>
+  </si>
+  <si>
+    <t>Functional Logic</t>
+  </si>
+  <si>
+    <t>% SOS</t>
+  </si>
+  <si>
+    <t>numerator param1</t>
+  </si>
+  <si>
+    <t>numerator value1</t>
+  </si>
+  <si>
+    <t>denominator param1</t>
+  </si>
+  <si>
+    <t>denominator value1</t>
+  </si>
+  <si>
+    <t>Coolers - Coke Branded - FSOP</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>Bodyarmor Nutrition llc,CCNA,Coca-Cola Company,Dr Pepper,FairLife LLC,Hansens</t>
+  </si>
+  <si>
+    <t>exclude brand</t>
+  </si>
+  <si>
+    <t>Hansen's,Hansens Soda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -205,22 +213,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <strike val="true"/>
+      <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -248,7 +241,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike val="true"/>
+      <strike/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -265,173 +258,426 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="43.2148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.9555555555556"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.6407407407407"/>
+    <col min="1" max="1" width="26.625"/>
+    <col min="2" max="2" width="40.625"/>
+    <col min="3" max="3" width="19.375"/>
+    <col min="4" max="4" width="24.375"/>
+    <col min="5" max="5" width="43.25" style="1"/>
+    <col min="6" max="6" width="17.25"/>
+    <col min="7" max="7" width="25"/>
+    <col min="8" max="8" width="20.625"/>
+    <col min="9" max="9" width="34"/>
+    <col min="10" max="10" width="51"/>
+    <col min="11" max="11" width="34"/>
+    <col min="12" max="12" width="17.125"/>
+    <col min="13" max="13" width="16.125" style="2"/>
+    <col min="14" max="1025" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,7 +716,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -509,7 +755,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -548,7 +794,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -587,7 +833,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -626,7 +872,7 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -665,7 +911,7 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:25" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -704,7 +950,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -743,7 +989,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" s="13" customFormat="true" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:25" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -779,45 +1025,37 @@
       <c r="Y9" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4185185185185"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.337037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.0851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.6111111111111"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.2481481481481"/>
+    <col min="1" max="1" width="12.25"/>
+    <col min="2" max="2" width="28.375"/>
+    <col min="3" max="3" width="12.25"/>
+    <col min="4" max="5" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="35.5"/>
+    <col min="7" max="7" width="32.375"/>
+    <col min="8" max="8" width="17.625"/>
+    <col min="9" max="9" width="30.125"/>
+    <col min="10" max="10" width="33.625"/>
+    <col min="11" max="11" width="19.375"/>
+    <col min="12" max="12" width="23.25" style="1"/>
+    <col min="13" max="13" width="19.375" style="1"/>
+    <col min="14" max="1026" width="12.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -830,32 +1068,35 @@
       <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -866,28 +1107,31 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="16" t="n">
+      <c r="I2" s="3"/>
+      <c r="J2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -898,22 +1142,23 @@
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -924,22 +1169,23 @@
         <v>8</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="3" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -950,22 +1196,23 @@
         <v>8</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -976,90 +1223,87 @@
         <v>8</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="17" t="n">
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="17">
         <v>2</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="18"/>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="18" t="n">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="18">
         <v>1</v>
       </c>
-      <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.2481481481481"/>
+    <col min="1" max="1" width="12.25"/>
+    <col min="2" max="2" width="20.625"/>
+    <col min="3" max="3" width="15.5"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="7" max="7" width="28.625"/>
+    <col min="8" max="8" width="17"/>
+    <col min="9" max="9" width="18.375"/>
+    <col min="10" max="1026" width="12.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>2</v>
@@ -1068,25 +1312,28 @@
         <v>29</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1097,20 +1344,23 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1121,35 +1371,32 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>52</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>